--- a/Tarefa_01/distancias.xlsx
+++ b/Tarefa_01/distancias.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\ACA_CIn_20211\Tarefa_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BA9E5C-02EC-4D36-B158-9C66340197FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B48AC7-032D-450B-8C81-F7CBBC1F6A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20010" yWindow="-780" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20010" yWindow="-780" windowWidth="19800" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dis_direta" sheetId="1" r:id="rId1"/>
     <sheet name="dist_real" sheetId="2" r:id="rId2"/>
+    <sheet name="dist_conex" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="87">
   <si>
     <t>E1</t>
   </si>
@@ -70,9 +71,6 @@
     <t>E14</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>18,5</t>
   </si>
   <si>
@@ -284,6 +282,12 @@
   </si>
   <si>
     <t>5,1</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -319,8 +323,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,442 +610,718 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="1">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="1">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8">
-        <v>20</v>
-      </c>
-      <c r="J8">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
-      </c>
-      <c r="N9" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" t="s">
-        <v>79</v>
-      </c>
-      <c r="O11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" t="s">
-        <v>81</v>
-      </c>
-      <c r="O12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1050,127 +1333,1393 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E379EBDA-BA91-4EB8-91B4-AA98FBF60CAD}">
   <dimension ref="A1:O15"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2532F2C-203C-4A38-BE7C-B503B36260BD}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:O15"/>
+      <selection sqref="A1:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3">
+        <v>8.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>3.5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>8.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4">
+        <v>6.3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4">
+        <v>9.4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4">
+        <v>18.7</v>
+      </c>
+      <c r="N4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5">
+        <v>6.3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5">
+        <v>15.3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5">
+        <v>12.8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="G6">
+        <v>2.4</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8">
+        <v>2.4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9">
+        <v>15.3</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9">
+        <v>9.6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9">
+        <v>6.4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>9.4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10">
+        <v>9.6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10">
+        <v>12.2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="B11">
+        <v>3.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12">
+        <v>12.2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13">
+        <v>6.4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>18.7</v>
+      </c>
+      <c r="D14">
+        <v>12.8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N15" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
